--- a/mercados/pbi_peru.xlsx
+++ b/mercados/pbi_peru.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C210"/>
+  <dimension ref="A1:C211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2694,6 +2694,17 @@
         <v>44682</v>
       </c>
     </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>3.4</v>
+      </c>
+      <c r="C211" s="2">
+        <v>44713</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pbi_peru.xlsx
+++ b/mercados/pbi_peru.xlsx
@@ -2512,7 +2512,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="C194" s="2">
         <v>44197</v>
@@ -2567,7 +2567,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>23.9</v>
+        <v>23.6</v>
       </c>
       <c r="C199" s="2">
         <v>44348</v>
@@ -2578,7 +2578,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>13</v>
+        <v>13.6</v>
       </c>
       <c r="C200" s="2">
         <v>44378</v>
@@ -2589,7 +2589,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="C201" s="2">
         <v>44409</v>
@@ -2611,7 +2611,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="C203" s="2">
         <v>44470</v>
@@ -2655,7 +2655,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="C207" s="2">
         <v>44593</v>
@@ -2677,7 +2677,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="C209" s="2">
         <v>44652</v>
@@ -2688,7 +2688,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="C210" s="2">
         <v>44682</v>

--- a/mercados/pbi_peru.xlsx
+++ b/mercados/pbi_peru.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C211"/>
+  <dimension ref="A1:C212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2705,6 +2705,17 @@
         <v>44713</v>
       </c>
     </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>1.4</v>
+      </c>
+      <c r="C212" s="2">
+        <v>44743</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pbi_peru.xlsx
+++ b/mercados/pbi_peru.xlsx
@@ -2666,7 +2666,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="C208" s="2">
         <v>44621</v>

--- a/mercados/pbi_peru.xlsx
+++ b/mercados/pbi_peru.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C212"/>
+  <dimension ref="A1:C213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2716,6 +2716,17 @@
         <v>44743</v>
       </c>
     </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>1.7</v>
+      </c>
+      <c r="C213" s="2">
+        <v>44774</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pbi_peru.xlsx
+++ b/mercados/pbi_peru.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C213"/>
+  <dimension ref="A1:C214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2666,7 +2666,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="C208" s="2">
         <v>44621</v>
@@ -2699,7 +2699,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="C211" s="2">
         <v>44713</v>
@@ -2710,7 +2710,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="C212" s="2">
         <v>44743</v>
@@ -2725,6 +2725,17 @@
       </c>
       <c r="C213" s="2">
         <v>44774</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>1.7</v>
+      </c>
+      <c r="C214" s="2">
+        <v>44805</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/pbi_peru.xlsx
+++ b/mercados/pbi_peru.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C214"/>
+  <dimension ref="A1:C215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2738,6 +2738,17 @@
         <v>44805</v>
       </c>
     </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>2</v>
+      </c>
+      <c r="C215" s="2">
+        <v>44835</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pbi_peru.xlsx
+++ b/mercados/pbi_peru.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C215"/>
+  <dimension ref="A1:C218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2534,7 +2534,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="C196" s="2">
         <v>44256</v>
@@ -2622,7 +2622,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="C204" s="2">
         <v>44501</v>
@@ -2633,7 +2633,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="C205" s="2">
         <v>44531</v>
@@ -2644,7 +2644,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="C206" s="2">
         <v>44562</v>
@@ -2655,7 +2655,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="C207" s="2">
         <v>44593</v>
@@ -2666,7 +2666,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="C208" s="2">
         <v>44621</v>
@@ -2688,7 +2688,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="C210" s="2">
         <v>44682</v>
@@ -2710,7 +2710,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="C212" s="2">
         <v>44743</v>
@@ -2721,7 +2721,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="C213" s="2">
         <v>44774</v>
@@ -2732,7 +2732,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="C214" s="2">
         <v>44805</v>
@@ -2743,10 +2743,43 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="C215" s="2">
         <v>44835</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>1.9</v>
+      </c>
+      <c r="C216" s="2">
+        <v>44866</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>0.9</v>
+      </c>
+      <c r="C217" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>-1.1</v>
+      </c>
+      <c r="C218" s="2">
+        <v>44927</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/pbi_peru.xlsx
+++ b/mercados/pbi_peru.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C218"/>
+  <dimension ref="A1:C221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -873,7 +873,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C45" s="2">
         <v>39661</v>
@@ -2072,7 +2072,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="C154" s="2">
         <v>42979</v>
@@ -2116,7 +2116,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="C158" s="2">
         <v>43101</v>
@@ -2138,7 +2138,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="C160" s="2">
         <v>43160</v>
@@ -2193,7 +2193,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="C165" s="2">
         <v>43313</v>
@@ -2281,7 +2281,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C173" s="2">
         <v>43556</v>
@@ -2369,7 +2369,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="C181" s="2">
         <v>43800</v>
@@ -2380,7 +2380,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="C182" s="2">
         <v>43831</v>
@@ -2391,7 +2391,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="C183" s="2">
         <v>43862</v>
@@ -2402,7 +2402,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>-17.7</v>
+        <v>-17.5</v>
       </c>
       <c r="C184" s="2">
         <v>43891</v>
@@ -2413,7 +2413,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>-39.1</v>
+        <v>-39.3</v>
       </c>
       <c r="C185" s="2">
         <v>43922</v>
@@ -2424,7 +2424,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>-32.6</v>
+        <v>-32.7</v>
       </c>
       <c r="C186" s="2">
         <v>43952</v>
@@ -2446,7 +2446,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>-11.2</v>
+        <v>-11</v>
       </c>
       <c r="C188" s="2">
         <v>44013</v>
@@ -2468,7 +2468,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>-6.1</v>
+        <v>-5.9</v>
       </c>
       <c r="C190" s="2">
         <v>44075</v>
@@ -2479,7 +2479,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>-3.2</v>
+        <v>-3.3</v>
       </c>
       <c r="C191" s="2">
         <v>44105</v>
@@ -2490,7 +2490,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>-2.1</v>
+        <v>-2.2</v>
       </c>
       <c r="C192" s="2">
         <v>44136</v>
@@ -2501,7 +2501,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="C193" s="2">
         <v>44166</v>
@@ -2512,7 +2512,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>-0.7</v>
+        <v>-1</v>
       </c>
       <c r="C194" s="2">
         <v>44197</v>
@@ -2523,7 +2523,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>-3.4</v>
+        <v>-3.8</v>
       </c>
       <c r="C195" s="2">
         <v>44228</v>
@@ -2534,7 +2534,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>20.1</v>
+        <v>19.8</v>
       </c>
       <c r="C196" s="2">
         <v>44256</v>
@@ -2545,7 +2545,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>59.3</v>
+        <v>60</v>
       </c>
       <c r="C197" s="2">
         <v>44287</v>
@@ -2556,7 +2556,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>48.4</v>
+        <v>48.6</v>
       </c>
       <c r="C198" s="2">
         <v>44317</v>
@@ -2567,7 +2567,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="C199" s="2">
         <v>44348</v>
@@ -2578,7 +2578,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>13.6</v>
+        <v>13.2</v>
       </c>
       <c r="C200" s="2">
         <v>44378</v>
@@ -2589,7 +2589,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="C201" s="2">
         <v>44409</v>
@@ -2600,7 +2600,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>10.2</v>
+        <v>10</v>
       </c>
       <c r="C202" s="2">
         <v>44440</v>
@@ -2611,7 +2611,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="C203" s="2">
         <v>44470</v>
@@ -2622,7 +2622,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="C204" s="2">
         <v>44501</v>
@@ -2633,7 +2633,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="C205" s="2">
         <v>44531</v>
@@ -2776,10 +2776,43 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>-1.1</v>
+        <v>-1</v>
       </c>
       <c r="C218" s="2">
         <v>44927</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>-0.5</v>
+      </c>
+      <c r="C219" s="2">
+        <v>44958</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>0.2</v>
+      </c>
+      <c r="C220" s="2">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>0.3</v>
+      </c>
+      <c r="C221" s="2">
+        <v>45017</v>
       </c>
     </row>
   </sheetData>
